--- a/About/Changelog/Changelog.xlsx
+++ b/About/Changelog/Changelog.xlsx
@@ -8,29 +8,65 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\Rimworld Expanded\About\Changelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E5BF6-DE1F-4B78-B36D-C71B82C29F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60F30B5-22F3-4311-AE62-C939DD916898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="4590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Version</t>
   </si>
   <si>
     <t>Changes</t>
+  </si>
+  <si>
+    <t>Initial Upload</t>
+  </si>
+  <si>
+    <t>Added link to the folder with all links: https://drive.google.com/drive/folders/17W31dHYpdEOISV22GKUj4Fy8HWRZvpLs?usp=sharing</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
+  </si>
+  <si>
+    <t>0.0.3</t>
+  </si>
+  <si>
+    <t>Removed changelog.md as it was redundent
+Made a note to somehow automate these changelogs
+Removed non-necessary/ redundant shortcuts
+Tested Excell-based changelog
+Made Shortcut to Excel-based Changelog (not in main changelog folder, will be moved if this is a valid method)</t>
   </si>
 </sst>
 </file>
@@ -66,8 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,20 +391,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45252</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
